--- a/project/xlsx/manual/新建 Microsoft Excel 工作表.xlsx
+++ b/project/xlsx/manual/新建 Microsoft Excel 工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\wordlist\project\xlsx\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E234D6-7995-4D03-829B-9320F50556BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674D41BB-3ED4-4900-814B-994571CAE9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>in the first instance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,22 @@
   </si>
   <si>
     <t>thanks to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave to one's own device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert oneself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blunder in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on impulse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -493,6 +509,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/xlsx/manual/新建 Microsoft Excel 工作表.xlsx
+++ b/project/xlsx/manual/新建 Microsoft Excel 工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\wordlist\project\xlsx\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674D41BB-3ED4-4900-814B-994571CAE9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62191028-31EF-44F7-88A1-C9F199FFAFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>in the first instance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>on impulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlook of life</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -529,6 +541,21 @@
         <v>18</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/xlsx/manual/新建 Microsoft Excel 工作表.xlsx
+++ b/project/xlsx/manual/新建 Microsoft Excel 工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\wordlist\project\xlsx\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62191028-31EF-44F7-88A1-C9F199FFAFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83AE360-1C49-47C1-A5A2-59BB4B3805D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>in the first instance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>outlook of life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunt down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in accordance with</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -556,6 +564,16 @@
         <v>21</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
